--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H2">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I2">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J2">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48008305953644</v>
+        <v>17.00372766666667</v>
       </c>
       <c r="N2">
-        <v>5.48008305953644</v>
+        <v>51.011183</v>
       </c>
       <c r="O2">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567142</v>
       </c>
       <c r="P2">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567141</v>
       </c>
       <c r="Q2">
-        <v>17.3832547244885</v>
+        <v>66.25505319271278</v>
       </c>
       <c r="R2">
-        <v>17.3832547244885</v>
+        <v>596.2954787344149</v>
       </c>
       <c r="S2">
-        <v>0.1389989572853492</v>
+        <v>0.2659470093011597</v>
       </c>
       <c r="T2">
-        <v>0.1389989572853492</v>
+        <v>0.2659470093011597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H3">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I3">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J3">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.32631764293685</v>
+        <v>5.393811333333333</v>
       </c>
       <c r="N3">
-        <v>5.32631764293685</v>
+        <v>16.181434</v>
       </c>
       <c r="O3">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="P3">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="Q3">
-        <v>16.89549872233881</v>
+        <v>21.01699485001889</v>
       </c>
       <c r="R3">
-        <v>16.89549872233881</v>
+        <v>189.15295365017</v>
       </c>
       <c r="S3">
-        <v>0.1350987914773334</v>
+        <v>0.08436197173674842</v>
       </c>
       <c r="T3">
-        <v>0.1350987914773334</v>
+        <v>0.08436197173674842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H4">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I4">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J4">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.24378139788671</v>
+        <v>3.287074</v>
       </c>
       <c r="N4">
-        <v>3.24378139788671</v>
+        <v>9.861222</v>
       </c>
       <c r="O4">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329392</v>
       </c>
       <c r="P4">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329391</v>
       </c>
       <c r="Q4">
-        <v>10.28952986613891</v>
+        <v>12.80808931945667</v>
       </c>
       <c r="R4">
-        <v>10.28952986613891</v>
+        <v>115.27280387511</v>
       </c>
       <c r="S4">
-        <v>0.08227653250314153</v>
+        <v>0.05141152086111787</v>
       </c>
       <c r="T4">
-        <v>0.08227653250314153</v>
+        <v>0.05141152086111785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.17479231641065</v>
+        <v>3.23724</v>
       </c>
       <c r="H5">
-        <v>3.17479231641065</v>
+        <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J5">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.48008305953644</v>
+        <v>17.00372766666667</v>
       </c>
       <c r="N5">
-        <v>5.48008305953644</v>
+        <v>51.011183</v>
       </c>
       <c r="O5">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567142</v>
       </c>
       <c r="P5">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567141</v>
       </c>
       <c r="Q5">
-        <v>17.39812559070846</v>
+        <v>55.04514735164</v>
       </c>
       <c r="R5">
-        <v>17.39812559070846</v>
+        <v>495.4063261647599</v>
       </c>
       <c r="S5">
-        <v>0.1391178668296932</v>
+        <v>0.2209505782469197</v>
       </c>
       <c r="T5">
-        <v>0.1391178668296932</v>
+        <v>0.2209505782469196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.17479231641065</v>
+        <v>3.23724</v>
       </c>
       <c r="H6">
-        <v>3.17479231641065</v>
+        <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J6">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.32631764293685</v>
+        <v>5.393811333333333</v>
       </c>
       <c r="N6">
-        <v>5.32631764293685</v>
+        <v>16.181434</v>
       </c>
       <c r="O6">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="P6">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="Q6">
-        <v>16.9099523275584</v>
+        <v>17.46106180072</v>
       </c>
       <c r="R6">
-        <v>16.9099523275584</v>
+        <v>157.14955620648</v>
       </c>
       <c r="S6">
-        <v>0.1352143645438494</v>
+        <v>0.07008849802923342</v>
       </c>
       <c r="T6">
-        <v>0.1352143645438494</v>
+        <v>0.07008849802923343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.17479231641065</v>
+        <v>3.23724</v>
       </c>
       <c r="H7">
-        <v>3.17479231641065</v>
+        <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J7">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.24378139788671</v>
+        <v>3.287074</v>
       </c>
       <c r="N7">
-        <v>3.24378139788671</v>
+        <v>9.861222</v>
       </c>
       <c r="O7">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329392</v>
       </c>
       <c r="P7">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329391</v>
       </c>
       <c r="Q7">
-        <v>10.29833225812652</v>
+        <v>10.64104743576</v>
       </c>
       <c r="R7">
-        <v>10.29833225812652</v>
+        <v>95.76942692183999</v>
       </c>
       <c r="S7">
-        <v>0.08234691767135588</v>
+        <v>0.04271304006263187</v>
       </c>
       <c r="T7">
-        <v>0.08234691767135588</v>
+        <v>0.04271304006263186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.55410434590679</v>
+        <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>2.55410434590679</v>
+        <v>7.697377</v>
       </c>
       <c r="I8">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="J8">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.48008305953644</v>
+        <v>17.00372766666667</v>
       </c>
       <c r="N8">
-        <v>5.48008305953644</v>
+        <v>51.011183</v>
       </c>
       <c r="O8">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567142</v>
       </c>
       <c r="P8">
-        <v>0.3900364436839596</v>
+        <v>0.6620200065567141</v>
       </c>
       <c r="Q8">
-        <v>13.9967039582922</v>
+        <v>43.62803408522122</v>
       </c>
       <c r="R8">
-        <v>13.9967039582922</v>
+        <v>392.652306766991</v>
       </c>
       <c r="S8">
-        <v>0.1119196195689172</v>
+        <v>0.1751224190086349</v>
       </c>
       <c r="T8">
-        <v>0.1119196195689172</v>
+        <v>0.1751224190086349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.55410434590679</v>
+        <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>2.55410434590679</v>
+        <v>7.697377</v>
       </c>
       <c r="I9">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="J9">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.32631764293685</v>
+        <v>5.393811333333333</v>
       </c>
       <c r="N9">
-        <v>5.32631764293685</v>
+        <v>16.181434</v>
       </c>
       <c r="O9">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="P9">
-        <v>0.3790924277629381</v>
+        <v>0.2100016587103467</v>
       </c>
       <c r="Q9">
-        <v>13.60397103950502</v>
+        <v>13.83939976651311</v>
       </c>
       <c r="R9">
-        <v>13.60397103950502</v>
+        <v>124.554597898618</v>
       </c>
       <c r="S9">
-        <v>0.1087792717417553</v>
+        <v>0.05555118894436482</v>
       </c>
       <c r="T9">
-        <v>0.1087792717417553</v>
+        <v>0.05555118894436483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.55410434590679</v>
+        <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>2.55410434590679</v>
+        <v>7.697377</v>
       </c>
       <c r="I10">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="J10">
-        <v>0.2869465696892773</v>
+        <v>0.2645273817621892</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.24378139788671</v>
+        <v>3.287074</v>
       </c>
       <c r="N10">
-        <v>3.24378139788671</v>
+        <v>9.861222</v>
       </c>
       <c r="O10">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329392</v>
       </c>
       <c r="P10">
-        <v>0.2308711285531023</v>
+        <v>0.1279783347329391</v>
       </c>
       <c r="Q10">
-        <v>8.284956165514048</v>
+        <v>8.433949268299333</v>
       </c>
       <c r="R10">
-        <v>8.284956165514048</v>
+        <v>75.90554341469399</v>
       </c>
       <c r="S10">
-        <v>0.06624767837860487</v>
+        <v>0.03385377380918943</v>
       </c>
       <c r="T10">
-        <v>0.06624767837860487</v>
+        <v>0.03385377380918942</v>
       </c>
     </row>
   </sheetData>
